--- a/frontend/public/templates/plantilla_usuarios.xlsx
+++ b/frontend/public/templates/plantilla_usuarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danie\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danie\Desktop\Proyecto de Título\Documentos Apoyo\Plantilas Importacion Masiva\Ejemplos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D473E8D9-E125-4A5E-A2BD-055018A37E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4522E7-9C5E-4F86-B347-673E0F79EB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42525" yWindow="4515" windowWidth="22485" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11220" yWindow="10935" windowWidth="22485" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plantilla_libros.xlsx_x000a_Obligator" sheetId="1" r:id="rId1"/>
@@ -49,15 +49,9 @@
     <t>curso</t>
   </si>
   <si>
-    <t>Pedro</t>
-  </si>
-  <si>
     <t>Soto</t>
   </si>
   <si>
-    <t>21.123.456-7</t>
-  </si>
-  <si>
     <t>pedro.soto@email.com</t>
   </si>
   <si>
@@ -74,6 +68,12 @@
   </si>
   <si>
     <t>2° Medio</t>
+  </si>
+  <si>
+    <t>21123456-7</t>
+  </si>
+  <si>
+    <t>Zpedro</t>
   </si>
 </sst>
 </file>
@@ -337,9 +337,16 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -372,31 +379,31 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/public/templates/plantilla_usuarios.xlsx
+++ b/frontend/public/templates/plantilla_usuarios.xlsx
@@ -1,79 +1,358 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danie\Desktop\Proyecto de Título\Documentos Apoyo\Plantilas Importacion Masiva\Ejemplos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyect_Sophia\frontend\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4522E7-9C5E-4F86-B347-673E0F79EB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD742C0-2C1D-403F-B2B5-7375B6FE1A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="10935" windowWidth="22485" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="plantilla_libros.xlsx_x000a_Obligator" sheetId="1" r:id="rId1"/>
+    <sheet name="y las plantillas debo modificar" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="111">
   <si>
     <t>primerNombre</t>
   </si>
   <si>
+    <t>segundoNombre</t>
+  </si>
+  <si>
     <t>primerApellido</t>
   </si>
   <si>
+    <t>segundoApellido</t>
+  </si>
+  <si>
     <t>rut</t>
   </si>
   <si>
     <t>correo</t>
   </si>
   <si>
+    <t>rol</t>
+  </si>
+  <si>
+    <t>curso</t>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
-    <t>rol</t>
-  </si>
-  <si>
-    <t>segundoNombre</t>
-  </si>
-  <si>
-    <t>segundoApellido</t>
-  </si>
-  <si>
-    <t>curso</t>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Isabel</t>
+  </si>
+  <si>
+    <t>González</t>
   </si>
   <si>
     <t>Soto</t>
   </si>
   <si>
-    <t>pedro.soto@email.com</t>
-  </si>
-  <si>
-    <t>clave123</t>
+    <t>18.123.456-7</t>
+  </si>
+  <si>
+    <t>ana.gonzalez@sophia.cl</t>
   </si>
   <si>
     <t>alumno</t>
   </si>
   <si>
+    <t>1° Medio</t>
+  </si>
+  <si>
+    <t>Benjamín</t>
+  </si>
+  <si>
+    <t>Rojas</t>
+  </si>
+  <si>
+    <t>Pérez</t>
+  </si>
+  <si>
+    <t>18.234.567-8</t>
+  </si>
+  <si>
+    <t>benjamin.rojas@sophia.cl</t>
+  </si>
+  <si>
+    <t>Carla</t>
+  </si>
+  <si>
+    <t>Sofía</t>
+  </si>
+  <si>
+    <t>Díaz</t>
+  </si>
+  <si>
+    <t>Muñoz</t>
+  </si>
+  <si>
+    <t>18.345.678-9</t>
+  </si>
+  <si>
+    <t>carla.diaz@sophia.cl</t>
+  </si>
+  <si>
+    <t>2° Medio</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Andrés</t>
+  </si>
+  <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>18.456.789-0</t>
+  </si>
+  <si>
+    <t>david.soto@sophia.cl</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>Romero</t>
+  </si>
+  <si>
+    <t>18.567.890-1</t>
+  </si>
+  <si>
+    <t>elena.castro@sophia.cl</t>
+  </si>
+  <si>
+    <t>3° Medio</t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
     <t>Antonio</t>
   </si>
   <si>
-    <t>Rojas</t>
-  </si>
-  <si>
-    <t>2° Medio</t>
-  </si>
-  <si>
-    <t>21123456-7</t>
-  </si>
-  <si>
-    <t>Zpedro</t>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>18.678.901-2</t>
+  </si>
+  <si>
+    <t>felipe.romero@sophia.cl</t>
+  </si>
+  <si>
+    <t>Gabriela</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>18.789.012-3</t>
+  </si>
+  <si>
+    <t>gabriela.torres@sophia.cl</t>
+  </si>
+  <si>
+    <t>4° Medio</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>Reyes</t>
+  </si>
+  <si>
+    <t>18.890.123-4</t>
+  </si>
+  <si>
+    <t>hugo.flores@sophia.cl</t>
+  </si>
+  <si>
+    <t>Irene</t>
+  </si>
+  <si>
+    <t>Morales</t>
+  </si>
+  <si>
+    <t>18.901.234-5</t>
+  </si>
+  <si>
+    <t>irene.reyes@sophia.cl</t>
+  </si>
+  <si>
+    <t>8° Básico</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>Vargas</t>
+  </si>
+  <si>
+    <t>19.012.345-6</t>
+  </si>
+  <si>
+    <t>javier.morales@sophia.cl</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>Ahumada</t>
+  </si>
+  <si>
+    <t>Silva</t>
+  </si>
+  <si>
+    <t>12.345.678-9</t>
+  </si>
+  <si>
+    <t>leonardo.ahumada@sophia.cl</t>
+  </si>
+  <si>
+    <t>profesor</t>
+  </si>
+  <si>
+    <t>María</t>
+  </si>
+  <si>
+    <t>Paz</t>
+  </si>
+  <si>
+    <t>Núñez</t>
+  </si>
+  <si>
+    <t>Ríos</t>
+  </si>
+  <si>
+    <t>13.456.789-0</t>
+  </si>
+  <si>
+    <t>maria.nunez@sophia.cl</t>
+  </si>
+  <si>
+    <t>Nicolás</t>
+  </si>
+  <si>
+    <t>Bravo</t>
+  </si>
+  <si>
+    <t>Herrera</t>
+  </si>
+  <si>
+    <t>14.567.890-1</t>
+  </si>
+  <si>
+    <t>nicolas.bravo@sophia.cl</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>Campos</t>
+  </si>
+  <si>
+    <t>Aguilar</t>
+  </si>
+  <si>
+    <t>15.678.901-2</t>
+  </si>
+  <si>
+    <t>olivia.campos@sophia.cl</t>
+  </si>
+  <si>
+    <t>Patricio</t>
+  </si>
+  <si>
+    <t>Miranda</t>
+  </si>
+  <si>
+    <t>16.789.012-3</t>
+  </si>
+  <si>
+    <t>patricio.miranda@sophia.cl</t>
+  </si>
+  <si>
+    <t>Renata</t>
+  </si>
+  <si>
+    <t>Molina</t>
+  </si>
+  <si>
+    <t>17.890.123-4</t>
+  </si>
+  <si>
+    <t>renata.molina@sophia.cl</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>Sebastián</t>
+  </si>
+  <si>
+    <t>Vega</t>
+  </si>
+  <si>
+    <t>10.901.234-5</t>
+  </si>
+  <si>
+    <t>sebastian.vega@sophia.cl</t>
+  </si>
+  <si>
+    <t>Tamara</t>
+  </si>
+  <si>
+    <t>Castillo</t>
+  </si>
+  <si>
+    <t>11.012.345-6</t>
+  </si>
+  <si>
+    <t>tamara.castillo@sophia.cl</t>
+  </si>
+  <si>
+    <t>Ulises</t>
+  </si>
+  <si>
+    <t>Ortiz</t>
+  </si>
+  <si>
+    <t>9.123.456-7</t>
+  </si>
+  <si>
+    <t>ulises.ortiz@sophia.cl</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Valentina</t>
+  </si>
+  <si>
+    <t>Riquelme</t>
+  </si>
+  <si>
+    <t>8.234.567-8</t>
+  </si>
+  <si>
+    <t>valentina.riquelme@sophia.cl</t>
   </si>
 </sst>
 </file>
@@ -335,20 +614,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -377,33 +651,512 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="I3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
         <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
